--- a/tables_tableau/tableau2/table1_tableau.xlsx
+++ b/tables_tableau/tableau2/table1_tableau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuxia\Desktop\dataset\tables_tableau\tableau2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566CBBBD-9732-424E-8681-07C8E130225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4219D104-F2FB-4E1E-A76D-0C2D0A18CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E4F143AC-2E37-4B50-A784-08781F0E4096}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
